--- a/medicine/Enfance/Ruth_Park/Ruth_Park.xlsx
+++ b/medicine/Enfance/Ruth_Park/Ruth_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruth Park, née le 24 août 1917[1] et morte le 16 décembre 2010 (à 93 ans)[2], est un écrivain australien d'origine néozélandaise. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruth Park, née le 24 août 1917 et morte le 16 décembre 2010 (à 93 ans), est un écrivain australien d'origine néozélandaise. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Auckland d'un père écossais et d'une mère suédoise, Rosina Lucia Park déménage avec sa famille plus au sud, à Te Kuiti sur l'île du Nord, dans une région isolée. 
 Durant la Grande Dépression, son père travaille sur les routes forestières, comme conducteur, puis comme travailleur bénéficiant du secours public, comme ouvrier dans une scierie et, finalement, il est transféré à Auckland comme ouvrier du gouvernement et est logé dans une maison de l'État. Après l'école primaire, Ruth obtient une bourse pour aller au collège, mais elle doit arrêter ses études en raison des longues périodes où elle ne peut se permettre d'assister aux cours. Ruth Park prétend avoir participé aux émeutes de "Queen Street" avec son père. Plus tard, elle travaille au quotidien Auckland Star avant de gagner l'Australie en 1942. Là, elle épouse l'écrivain australien D'Arcy Niland. 
@@ -547,7 +561,9 @@
           <t>Romans parus en France[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1953 : Té-Kano (The Witch's Thorn, 1951)
 1964 : Le Chemin sous la mer (the Road under the sea, 1962)</t>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-(en) The Harp in the South, 1948
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Harp in the South, 1948
 (en) Poor Man's Orange, 1949
 (en) The Witch's Thorn, 1951
 (en) A Power of Roses, 1953
@@ -589,9 +610,43 @@
 (en) Pink Flannel, 1955
 (en) One-a-Pecker, Two-a-Pecker, 1957
 (en) Swords and Crowns and Rings, 1977
-(en) Missus, 1985
-Livres pour enfants
-(en) The Hole in the Hill, 1961
+(en) Missus, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ruth_Park</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruth_Park</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Hole in the Hill, 1961
 (en) The Ship's Cat, 1961
 (en) The Muddle-Headed Wombat series, (1962-1982
 (en) Airlift for Grandee, 1962
@@ -614,9 +669,43 @@
 (en) My Sister Sif, 1986
 (en) Callie's Family, 1988
 (en) Things in Corners, 1989
-(en) James, 1991
-Œuvres non romanesques
-(en) Der Goldene Bumerang, 1955
+(en) James, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ruth_Park</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruth_Park</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres non romanesques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Der Goldene Bumerang, 1955
 (en) The Companion Guide to Sydney, 1973
 (en) Norfolk Island and Lord Howe Island, 1982
 (en) The Sydney We Love, 1983
@@ -625,62 +714,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ruth_Park</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ruth_Park</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1977 : Prix Miles-Franklin pour Swords and Crowns and Rings
-1982 : (international) « Honour List »[4] de l' IBBY pour Playing Beatie Bow</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+1982 : (international) « Honour List » de l' IBBY pour Playing Beatie Bow</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ruth_Park</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ruth_Park</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Site officiel de Ruth Park</t>
         </is>
